--- a/Week 1/day-2-excel-and-analyst-toolbox/excel-data-toolbox-drill-09252019.xlsx
+++ b/Week 1/day-2-excel-and-analyst-toolbox/excel-data-toolbox-drill-09252019.xlsx
@@ -367,7 +367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
